--- a/Base de dados/Estoque.xlsx
+++ b/Base de dados/Estoque.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
       <selection activeCell="A312" sqref="A312:XFD312"/>
@@ -10741,6 +10741,102 @@
         <v>23</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>TESTE 2</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>TETES 3</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Base de dados/Estoque.xlsx
+++ b/Base de dados/Estoque.xlsx
@@ -560,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6">

--- a/Base de dados/Estoque.xlsx
+++ b/Base de dados/Estoque.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -11555,102 +11555,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>1334</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>TESTES DE ATULIZAÇÃO</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>ESCRITORIO</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>0</v>
-      </c>
-      <c r="F338" t="n">
-        <v>0</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>1335</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>TESTE 2</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>ESCRITORIO</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>1336</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>TESTE 5</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>ESCRITORIO</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>0</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
